--- a/£PIER.xlsx
+++ b/£PIER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68DD07B-03B8-4986-8FF7-4E8F73284B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35AA47-AA8C-4019-8133-627500186200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24555" windowHeight="7980" xr2:uid="{4DFA116F-B044-48F8-A7DC-EC3813B67341}"/>
   </bookViews>
@@ -25,6 +25,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>me</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{AA9ADE22-F576-4260-90A1-64D8774AFCE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Acquisitions, Restructuring &amp; Impairment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
@@ -337,10 +371,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0\x"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +435,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -523,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -557,37 +604,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,22 +630,10 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -651,6 +659,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,6 +720,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Risk Capital Partners | The Brighton Pier Group PLC | a different kind of  private equity firm">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30BC04F-6C7E-46DD-BC68-1B3C5789B2A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2552701" y="38101"/>
+          <a:ext cx="847724" cy="847724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1024,7 +1140,7 @@
   <dimension ref="A2:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1043,28 +1159,28 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="G5" s="23" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="G5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
-      <c r="R5" s="23" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="56"/>
+      <c r="R5" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="56"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1083,7 +1199,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
-      <c r="R6" s="26"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="7"/>
@@ -1109,7 +1225,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
-      <c r="R7" s="26"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
@@ -1132,7 +1248,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
-      <c r="R8" s="26"/>
+      <c r="R8" s="19"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="7"/>
@@ -1158,7 +1274,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
-      <c r="R9" s="26"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="7"/>
@@ -1184,7 +1300,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
-      <c r="R10" s="26"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="7"/>
@@ -1210,7 +1326,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="43" t="s">
         <v>94</v>
       </c>
       <c r="S11" s="6"/>
@@ -1235,7 +1351,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
-      <c r="R12" s="57" t="s">
+      <c r="R12" s="44" t="s">
         <v>95</v>
       </c>
       <c r="S12" s="6"/>
@@ -1243,7 +1359,7 @@
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="G13" s="55">
+      <c r="G13" s="42">
         <v>44348</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -1256,7 +1372,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
-      <c r="R13" s="26"/>
+      <c r="R13" s="19"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="7"/>
@@ -1271,17 +1387,17 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
-      <c r="R14" s="26"/>
+      <c r="R14" s="19"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1291,7 +1407,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
-      <c r="R15" s="27"/>
+      <c r="R15" s="20"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="9"/>
@@ -1300,10 +1416,10 @@
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="53"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1315,16 +1431,16 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="53"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1339,9 +1455,9 @@
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="G18" s="55">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="G18" s="42">
         <v>43070</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -1359,8 +1475,8 @@
       <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1394,11 +1510,11 @@
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
       <c r="G22" s="13"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1413,10 +1529,10 @@
       <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="53"/>
       <c r="G23" s="14"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1431,43 +1547,46 @@
       <c r="B24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="52">
         <v>2006</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="52">
         <v>2013</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="53"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="61">
+        <f>'Financial Model'!N33</f>
+        <v>18</v>
+      </c>
+      <c r="D28" s="53"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
@@ -1476,7 +1595,7 @@
       <c r="C30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="22">
         <v>45195</v>
       </c>
     </row>
@@ -1484,70 +1603,77 @@
       <c r="B31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="48">
         <f>C6/'Financial Model'!N67</f>
         <v>0.91229633789258391</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="48">
         <f>C8/'Financial Model'!N8</f>
         <v>0.56696729484494968</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="49"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="48">
         <f>C12/'Financial Model'!N8</f>
         <v>0.69130671053943571</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="48">
         <f>C6/'Financial Model'!N21</f>
         <v>3.9507486538127492</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="50">
         <f>C12/'Financial Model'!N20</f>
         <v>4.8171721382664581</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -1564,30 +1690,24 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{F4025114-7C11-4623-973B-A0FA3494743C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0ED243-C0C4-49A2-9953-B977BA843F19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0ED243-C0C4-49A2-9953-B977BA843F19}">
   <dimension ref="B1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1597,133 +1717,133 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I1" s="34" t="s">
+    <row r="1" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="2:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32"/>
-      <c r="I2" s="35">
+    <row r="2" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="23"/>
+      <c r="I2" s="26">
         <v>42911</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="26">
         <v>43282</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="26">
         <v>43646</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="26">
         <v>44010</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="26">
         <v>44374</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="26">
         <v>44738</v>
       </c>
     </row>
-    <row r="3" spans="2:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
-      <c r="N3" s="44">
+    <row r="3" spans="2:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23"/>
+      <c r="N3" s="33">
         <v>44830</v>
       </c>
     </row>
-    <row r="4" spans="2:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+    <row r="4" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="47">
         <v>14.916</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="47">
         <v>14.505000000000001</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="46">
         <v>14.7</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="46">
         <v>9.5</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="46">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="47">
         <v>0</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="47">
         <v>2.1859999999999999</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="46">
         <v>12.8</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="46">
         <v>4.3</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="46">
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
+    <row r="6" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="47">
         <v>16.388000000000002</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="47">
         <v>14.991</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="46">
         <v>4.5</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="46">
         <v>8.9</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="46">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="58" t="s">
+    <row r="7" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="47">
         <v>0</v>
       </c>
-      <c r="J7" s="60">
+      <c r="J7" s="47">
         <v>0</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="46">
         <v>0</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="46">
         <v>0</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="46">
         <v>0.2</v>
       </c>
     </row>
@@ -1731,22 +1851,22 @@
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="27">
         <v>31.303999999999998</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="27">
         <v>31.681999999999999</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="27">
         <v>32.021999999999998</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="27">
         <v>22.620999999999999</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="27">
         <v>13.541</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="27">
         <v>40.116</v>
       </c>
     </row>
@@ -1757,19 +1877,19 @@
       <c r="I9" s="1">
         <v>5.54</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="28">
         <v>5.4240000000000004</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="28">
         <v>4.9950000000000001</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="28">
         <v>3.3290000000000002</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="28">
         <v>1.7809999999999999</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="28">
         <v>5.226</v>
       </c>
     </row>
@@ -1777,27 +1897,27 @@
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="27">
         <f t="shared" ref="I10" si="0">I8-I9</f>
         <v>25.763999999999999</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="27">
         <f t="shared" ref="J10" si="1">J8-J9</f>
         <v>26.257999999999999</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="27">
         <f t="shared" ref="K10:L10" si="2">K8-K9</f>
         <v>27.026999999999997</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="27">
         <f t="shared" si="2"/>
         <v>19.291999999999998</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="27">
         <f>M8-M9</f>
         <v>11.76</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="27">
         <f>N8-N9</f>
         <v>34.89</v>
       </c>
@@ -1806,22 +1926,22 @@
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="28">
         <v>21.971</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="28">
         <v>22.655999999999999</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="28">
         <v>23.300999999999998</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="28">
         <v>20.329000000000001</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="28">
         <v>15.085000000000001</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="28">
         <v>27.338999999999999</v>
       </c>
     </row>
@@ -1829,22 +1949,22 @@
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="28">
         <v>1.5840000000000001</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="28">
         <v>0.94699999999999995</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="28">
         <v>0.55700000000000005</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="28">
         <v>8.1170000000000009</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="28">
         <v>-2.746</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="28">
         <v>-0.84799999999999998</v>
       </c>
     </row>
@@ -1852,22 +1972,22 @@
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="28">
         <v>0</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="28">
         <v>0</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="28">
         <v>0</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="28">
         <v>0</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="28">
         <v>5.6929999999999996</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="28">
         <v>0.09</v>
       </c>
     </row>
@@ -1875,27 +1995,27 @@
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="28">
         <f t="shared" ref="I14" si="3">I11+I12-I13</f>
         <v>23.555</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="28">
         <f t="shared" ref="J14" si="4">J11+J12-J13</f>
         <v>23.602999999999998</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="28">
         <f t="shared" ref="K14" si="5">K11+K12-K13</f>
         <v>23.857999999999997</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="28">
         <f t="shared" ref="L14" si="6">L11+L12-L13</f>
         <v>28.446000000000002</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="28">
         <f t="shared" ref="M14" si="7">M11+M12-M13</f>
         <v>6.6460000000000008</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="28">
         <f>N11+N12-N13</f>
         <v>26.401</v>
       </c>
@@ -1904,27 +2024,27 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="27">
         <f t="shared" ref="I15" si="8">I10-I14</f>
         <v>2.2089999999999996</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="27">
         <f t="shared" ref="J15" si="9">J10-J14</f>
         <v>2.6550000000000011</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="27">
         <f t="shared" ref="K15" si="10">K10-K14</f>
         <v>3.1690000000000005</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="27">
         <f t="shared" ref="L15" si="11">L10-L14</f>
         <v>-9.1540000000000035</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="27">
         <f t="shared" ref="M15" si="12">M10-M14</f>
         <v>5.113999999999999</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="27">
         <f>N10-N14</f>
         <v>8.4890000000000008</v>
       </c>
@@ -1933,22 +2053,22 @@
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="28">
         <v>0</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="28">
         <v>0</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="28">
         <v>0</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="28">
         <v>2.4E-2</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="28">
         <v>2.3E-2</v>
       </c>
     </row>
@@ -1956,22 +2076,22 @@
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="28">
         <v>0.315</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="28">
         <v>0.38700000000000001</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="28">
         <v>0.48</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="28">
         <v>1.071</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="28">
         <v>0.99099999999999999</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="28">
         <v>1.165</v>
       </c>
     </row>
@@ -1979,27 +2099,27 @@
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="28">
         <f t="shared" ref="I18" si="13">I15+I16-I17</f>
         <v>1.8939999999999997</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="28">
         <f t="shared" ref="J18" si="14">J15+J16-J17</f>
         <v>2.2680000000000011</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="28">
         <f t="shared" ref="K18:L18" si="15">K15+K16-K17</f>
         <v>2.6890000000000005</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="28">
         <f t="shared" si="15"/>
         <v>-10.207000000000003</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="28">
         <f>M15+M16-M17</f>
         <v>4.1469999999999994</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="28">
         <f>N15+N16-N17</f>
         <v>7.3470000000000004</v>
       </c>
@@ -2008,22 +2128,22 @@
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="28">
         <v>1.9E-2</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="28">
         <v>0.50700000000000001</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="28">
         <v>0.44600000000000001</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="28">
         <v>-0.71399999999999997</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="28">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="28">
         <v>1.59</v>
       </c>
     </row>
@@ -2031,27 +2151,27 @@
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="27">
         <f t="shared" ref="I20" si="16">+I18-I19</f>
         <v>1.8749999999999998</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="27">
         <f t="shared" ref="J20" si="17">+J18-J19</f>
         <v>1.761000000000001</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="27">
         <f t="shared" ref="K20:L20" si="18">+K18-K19</f>
         <v>2.2430000000000003</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="27">
         <f t="shared" si="18"/>
         <v>-9.4930000000000021</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="27">
         <f>+M18-M19</f>
         <v>4.2279999999999998</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="27">
         <f t="shared" ref="N20" si="19">+N18-N19</f>
         <v>5.7570000000000006</v>
       </c>
@@ -2060,135 +2180,135 @@
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="30">
         <f t="shared" ref="I21" si="20">I20/I22</f>
         <v>5.9092341632524414E-2</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="30">
         <f t="shared" ref="J21" si="21">J20/J22</f>
         <v>5.1931583603656774E-2</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="30">
         <f t="shared" ref="K21" si="22">K20/K22</f>
         <v>6.1217248908296953E-2</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="30">
         <f t="shared" ref="L21" si="23">L20/L22</f>
         <v>-0.25457227138643074</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="30">
         <f t="shared" ref="M21" si="24">M20/M22</f>
         <v>0.11339376709757013</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="30">
         <f>N20/N22</f>
         <v>0.15440111570026285</v>
       </c>
     </row>
-    <row r="22" spans="2:19" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="2:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="28">
         <v>31.73</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="28">
         <v>33.909999999999997</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="28">
         <v>36.64</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="28">
         <v>37.29</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="28">
         <v>37.286000000000001</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="28">
         <v>37.286000000000001</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="S23" s="40"/>
+      <c r="S23" s="31"/>
     </row>
     <row r="24" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="38">
-        <f t="shared" ref="J24:N24" si="25">J8/I8-1</f>
+      <c r="J24" s="29">
+        <f t="shared" ref="J24:M24" si="25">J8/I8-1</f>
         <v>1.2075134168157531E-2</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="29">
         <f t="shared" si="25"/>
         <v>1.073164572943619E-2</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="29">
         <f t="shared" si="25"/>
         <v>-0.29357941415277</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="29">
         <f t="shared" si="25"/>
         <v>-0.40139693205428584</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="29">
         <f>N8/M8-1</f>
         <v>1.9625581567092532</v>
       </c>
-      <c r="S24" s="48"/>
+      <c r="S24" s="35"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="S25" s="49"/>
+      <c r="S25" s="36"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="40">
-        <f t="shared" ref="I27:K27" si="26">I10/I8</f>
+      <c r="I27" s="31">
+        <f t="shared" ref="I27:J27" si="26">I10/I8</f>
         <v>0.82302581139790443</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="31">
         <f t="shared" si="26"/>
         <v>0.82879868695158132</v>
       </c>
-      <c r="K27" s="40">
-        <f t="shared" ref="K27:M27" si="27">K10/K8</f>
+      <c r="K27" s="31">
+        <f t="shared" ref="K27:L27" si="27">K10/K8</f>
         <v>0.84401349072512644</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="31">
         <f t="shared" si="27"/>
         <v>0.85283586048362137</v>
       </c>
-      <c r="M27" s="40">
-        <f t="shared" ref="M27:N27" si="28">M10/M8</f>
+      <c r="M27" s="31">
+        <f t="shared" ref="M27" si="28">M10/M8</f>
         <v>0.86847352485045415</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="31">
         <f>N10/N8</f>
         <v>0.86972778941070894</v>
       </c>
@@ -2197,27 +2317,27 @@
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="40">
-        <f t="shared" ref="I28:K28" si="29">I15/I8</f>
+      <c r="I28" s="31">
+        <f t="shared" ref="I28:J28" si="29">I15/I8</f>
         <v>7.0566061845131603E-2</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="31">
         <f t="shared" si="29"/>
         <v>8.3801527681333282E-2</v>
       </c>
-      <c r="K28" s="40">
-        <f t="shared" ref="K28:M28" si="30">K15/K8</f>
+      <c r="K28" s="31">
+        <f t="shared" ref="K28:L28" si="30">K15/K8</f>
         <v>9.8963212791206068E-2</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="31">
         <f t="shared" si="30"/>
         <v>-0.40466822863710727</v>
       </c>
-      <c r="M28" s="40">
-        <f t="shared" ref="M28:N28" si="31">M15/M8</f>
+      <c r="M28" s="31">
+        <f t="shared" ref="M28" si="31">M15/M8</f>
         <v>0.37766782364670254</v>
       </c>
-      <c r="N28" s="40">
+      <c r="N28" s="31">
         <f>N15/N8</f>
         <v>0.21161132715126135</v>
       </c>
@@ -2226,27 +2346,27 @@
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="40">
-        <f t="shared" ref="I29:K29" si="32">I20/I8</f>
+      <c r="I29" s="31">
+        <f t="shared" ref="I29:J29" si="32">I20/I8</f>
         <v>5.9896498849987219E-2</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="31">
         <f t="shared" si="32"/>
         <v>5.558361214569791E-2</v>
       </c>
-      <c r="K29" s="40">
-        <f t="shared" ref="K29:M29" si="33">K20/K8</f>
+      <c r="K29" s="31">
+        <f t="shared" ref="K29:L29" si="33">K20/K8</f>
         <v>7.0045593654362637E-2</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="31">
         <f t="shared" si="33"/>
         <v>-0.41965430352327493</v>
       </c>
-      <c r="M29" s="40">
-        <f t="shared" ref="M29:N29" si="34">M20/M8</f>
+      <c r="M29" s="31">
+        <f t="shared" ref="M29" si="34">M20/M8</f>
         <v>0.31223691012480614</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="31">
         <f>N20/N8</f>
         <v>0.14350882440921331</v>
       </c>
@@ -2255,137 +2375,146 @@
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="40">
-        <f t="shared" ref="I30:K30" si="35">I19/I18</f>
+      <c r="I30" s="31">
+        <f t="shared" ref="I30:J30" si="35">I19/I18</f>
         <v>1.0031678986272441E-2</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="31">
         <f t="shared" si="35"/>
         <v>0.22354497354497344</v>
       </c>
-      <c r="K30" s="40">
-        <f t="shared" ref="K30:M30" si="36">K19/K18</f>
+      <c r="K30" s="31">
+        <f t="shared" ref="K30:L30" si="36">K19/K18</f>
         <v>0.16586091483822979</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="31">
         <f t="shared" si="36"/>
         <v>6.9951993729793258E-2</v>
       </c>
-      <c r="M30" s="40">
-        <f t="shared" ref="M30:N30" si="37">M19/M18</f>
+      <c r="M30" s="31">
+        <f t="shared" ref="M30" si="37">M19/M18</f>
         <v>-1.9532191945985052E-2</v>
       </c>
-      <c r="N30" s="40">
+      <c r="N30" s="31">
         <f>N19/N18</f>
         <v>0.21641486320947326</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-    </row>
-    <row r="33" spans="2:14" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="52" t="s">
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="52">
-        <f>SUM(I34:I37)</f>
+      <c r="I33" s="39">
+        <f t="shared" ref="I33:N33" si="38">SUM(I34:I37)</f>
         <v>15</v>
       </c>
-      <c r="J33" s="52">
-        <f>SUM(J34:J37)</f>
+      <c r="J33" s="39">
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
-      <c r="K33" s="52">
-        <f>SUM(K34:K37)</f>
+      <c r="K33" s="39">
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
-      <c r="L33" s="52">
-        <f>SUM(L34:L37)</f>
+      <c r="L33" s="39">
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
-      <c r="M33" s="52">
-        <f>SUM(M34:M37)</f>
+      <c r="M33" s="39">
+        <f t="shared" si="38"/>
         <v>18</v>
       </c>
-      <c r="N33" s="52">
-        <f>SUM(N34:N37)</f>
+      <c r="N33" s="39">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="41">
+        <v>1</v>
+      </c>
+      <c r="J34" s="41">
+        <v>1</v>
+      </c>
+      <c r="K34" s="41">
+        <v>1</v>
+      </c>
+      <c r="L34" s="41">
+        <v>1</v>
+      </c>
+      <c r="M34" s="41">
+        <v>1</v>
+      </c>
+      <c r="N34" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="41">
+        <v>14</v>
+      </c>
+      <c r="J35" s="41">
+        <v>12</v>
+      </c>
+      <c r="K35" s="41">
+        <v>12</v>
+      </c>
+      <c r="L35" s="41">
+        <v>12</v>
+      </c>
+      <c r="M35" s="41">
+        <v>8</v>
+      </c>
+      <c r="N35" s="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="54">
-        <v>1</v>
-      </c>
-      <c r="J34" s="54">
-        <v>1</v>
-      </c>
-      <c r="K34" s="54">
-        <v>1</v>
-      </c>
-      <c r="L34" s="54">
-        <v>1</v>
-      </c>
-      <c r="M34" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="54">
-        <v>14</v>
-      </c>
-      <c r="J35" s="54">
-        <v>12</v>
-      </c>
-      <c r="K35" s="54">
-        <v>12</v>
-      </c>
-      <c r="L35" s="54">
-        <v>12</v>
-      </c>
-      <c r="M35" s="54">
+      <c r="J36" s="41">
+        <v>6</v>
+      </c>
+      <c r="K36" s="41">
+        <v>6</v>
+      </c>
+      <c r="L36" s="41">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="54">
-        <v>0</v>
-      </c>
-      <c r="J36" s="54">
-        <v>6</v>
-      </c>
-      <c r="K36" s="54">
-        <v>6</v>
-      </c>
-      <c r="L36" s="54">
+      <c r="M36" s="41">
         <v>8</v>
       </c>
-      <c r="M36" s="54">
+      <c r="N36" s="41">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="38" t="s">
         <v>92</v>
       </c>
       <c r="I37" s="1">
@@ -2403,9 +2532,12 @@
       <c r="M37" s="1">
         <v>1</v>
       </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2413,10 +2545,10 @@
       <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="37">
+      <c r="M40" s="28">
         <v>10.457000000000001</v>
       </c>
-      <c r="N40" s="37">
+      <c r="N40" s="28">
         <v>11.004</v>
       </c>
     </row>
@@ -2424,10 +2556,10 @@
       <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="28">
         <v>29.007999999999999</v>
       </c>
-      <c r="N41" s="37">
+      <c r="N41" s="28">
         <v>28.608000000000001</v>
       </c>
     </row>
@@ -2435,10 +2567,10 @@
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M42" s="37">
+      <c r="M42" s="28">
         <v>24.091000000000001</v>
       </c>
-      <c r="N42" s="37">
+      <c r="N42" s="28">
         <v>24.152999999999999</v>
       </c>
     </row>
@@ -2446,10 +2578,10 @@
       <c r="B43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="37">
+      <c r="M43" s="28">
         <v>0.63500000000000001</v>
       </c>
-      <c r="N43" s="37">
+      <c r="N43" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2457,10 +2589,10 @@
       <c r="B44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="37">
+      <c r="M44" s="28">
         <v>0.20899999999999999</v>
       </c>
-      <c r="N44" s="37">
+      <c r="N44" s="28">
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -2468,11 +2600,11 @@
       <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M45" s="37">
-        <f t="shared" ref="M45" si="38">SUM(M40:M44)</f>
+      <c r="M45" s="28">
+        <f t="shared" ref="M45" si="39">SUM(M40:M44)</f>
         <v>64.400000000000006</v>
       </c>
-      <c r="N45" s="37">
+      <c r="N45" s="28">
         <f>SUM(N40:N44)</f>
         <v>63.971000000000004</v>
       </c>
@@ -2481,10 +2613,10 @@
       <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M46" s="36">
+      <c r="M46" s="27">
         <v>0.73099999999999998</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46" s="27">
         <v>0.93100000000000005</v>
       </c>
     </row>
@@ -2492,10 +2624,10 @@
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="37">
+      <c r="M47" s="28">
         <v>4.0019999999999998</v>
       </c>
-      <c r="N47" s="37">
+      <c r="N47" s="28">
         <v>1.9670000000000001</v>
       </c>
     </row>
@@ -2503,10 +2635,10 @@
       <c r="B48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M48" s="37">
+      <c r="M48" s="28">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N48" s="37">
+      <c r="N48" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2514,10 +2646,10 @@
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49" s="27">
         <v>7.08</v>
       </c>
-      <c r="N49" s="36">
+      <c r="N49" s="27">
         <v>7.6539999999999999</v>
       </c>
     </row>
@@ -2525,27 +2657,27 @@
       <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M50" s="37">
-        <f t="shared" ref="M50" si="39">SUM(M45:M49)</f>
+      <c r="M50" s="28">
+        <f t="shared" ref="M50" si="40">SUM(M45:M49)</f>
         <v>76.217999999999989</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="28">
         <f>SUM(N45:N49)</f>
         <v>74.522999999999996</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="28">
         <v>8.3209999999999997</v>
       </c>
-      <c r="N52" s="37">
+      <c r="N52" s="28">
         <v>8.9280000000000008</v>
       </c>
     </row>
@@ -2553,10 +2685,10 @@
       <c r="B53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="27">
         <v>5.9130000000000003</v>
       </c>
-      <c r="N53" s="36">
+      <c r="N53" s="27">
         <v>1.371</v>
       </c>
     </row>
@@ -2564,10 +2696,10 @@
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M54" s="37">
+      <c r="M54" s="28">
         <v>2.0590000000000002</v>
       </c>
-      <c r="N54" s="37">
+      <c r="N54" s="28">
         <v>1.8420000000000001</v>
       </c>
     </row>
@@ -2575,10 +2707,10 @@
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M55" s="37">
+      <c r="M55" s="28">
         <v>0</v>
       </c>
-      <c r="N55" s="37">
+      <c r="N55" s="28">
         <v>1.2969999999999999</v>
       </c>
     </row>
@@ -2586,11 +2718,11 @@
       <c r="B56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M56" s="37">
-        <f t="shared" ref="M56" si="40">SUM(M52:M55)</f>
+      <c r="M56" s="28">
+        <f t="shared" ref="M56" si="41">SUM(M52:M55)</f>
         <v>16.292999999999999</v>
       </c>
-      <c r="N56" s="37">
+      <c r="N56" s="28">
         <f>SUM(N52:N55)</f>
         <v>13.438000000000002</v>
       </c>
@@ -2599,10 +2731,10 @@
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="27">
         <v>14.456</v>
       </c>
-      <c r="N57" s="36">
+      <c r="N57" s="27">
         <v>11.271000000000001</v>
       </c>
     </row>
@@ -2610,10 +2742,10 @@
       <c r="B58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M58" s="37">
+      <c r="M58" s="28">
         <v>25.715</v>
       </c>
-      <c r="N58" s="37">
+      <c r="N58" s="28">
         <v>24.359000000000002</v>
       </c>
     </row>
@@ -2621,10 +2753,10 @@
       <c r="B59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M59" s="37">
+      <c r="M59" s="28">
         <v>0.26500000000000001</v>
       </c>
-      <c r="N59" s="37">
+      <c r="N59" s="28">
         <v>0.52400000000000002</v>
       </c>
     </row>
@@ -2632,10 +2764,10 @@
       <c r="B60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M60" s="37">
+      <c r="M60" s="28">
         <v>0.315</v>
       </c>
-      <c r="N60" s="37">
+      <c r="N60" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2643,26 +2775,26 @@
       <c r="B61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M61" s="37">
-        <f t="shared" ref="M61" si="41">SUM(M56:M60)</f>
+      <c r="M61" s="28">
+        <f t="shared" ref="M61" si="42">SUM(M56:M60)</f>
         <v>57.043999999999997</v>
       </c>
-      <c r="N61" s="37">
+      <c r="N61" s="28">
         <f>SUM(N56:N60)</f>
         <v>49.592000000000006</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N62" s="37"/>
+      <c r="N62" s="28"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M63" s="45">
+      <c r="M63" s="34">
         <v>19.173999999999999</v>
       </c>
-      <c r="N63" s="37">
+      <c r="N63" s="28">
         <v>24.931000000000001</v>
       </c>
     </row>
@@ -2670,11 +2802,11 @@
       <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M64" s="45">
+      <c r="M64" s="34">
         <f>M63+M61</f>
         <v>76.217999999999989</v>
       </c>
-      <c r="N64" s="37">
+      <c r="N64" s="28">
         <f>N63+N61</f>
         <v>74.52300000000001</v>
       </c>
@@ -2683,11 +2815,11 @@
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M66" s="37">
-        <f t="shared" ref="M66:N66" si="42">M50-M61</f>
+      <c r="M66" s="28">
+        <f t="shared" ref="M66" si="43">M50-M61</f>
         <v>19.173999999999992</v>
       </c>
-      <c r="N66" s="37">
+      <c r="N66" s="28">
         <f>N50-N61</f>
         <v>24.93099999999999</v>
       </c>
@@ -2697,7 +2829,7 @@
         <v>81</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" ref="M67" si="43">M66/M22</f>
+        <f t="shared" ref="M67" si="44">M66/M22</f>
         <v>0.51424127018183752</v>
       </c>
       <c r="N67" s="1">
@@ -2709,11 +2841,11 @@
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M69" s="37">
-        <f t="shared" ref="M69:N69" si="44">M49</f>
+      <c r="M69" s="28">
+        <f t="shared" ref="M69" si="45">M49</f>
         <v>7.08</v>
       </c>
-      <c r="N69" s="37">
+      <c r="N69" s="28">
         <f>N49</f>
         <v>7.6539999999999999</v>
       </c>
@@ -2722,11 +2854,11 @@
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M70" s="37">
-        <f t="shared" ref="M70:N70" si="45">M53+M57</f>
+      <c r="M70" s="28">
+        <f t="shared" ref="M70" si="46">M53+M57</f>
         <v>20.369</v>
       </c>
-      <c r="N70" s="37">
+      <c r="N70" s="28">
         <f>N53+N57</f>
         <v>12.642000000000001</v>
       </c>
@@ -2735,23 +2867,23 @@
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M71" s="37">
-        <f t="shared" ref="M71" si="46">M69-M70</f>
+      <c r="M71" s="28">
+        <f t="shared" ref="M71" si="47">M69-M70</f>
         <v>-13.289</v>
       </c>
-      <c r="N71" s="37">
+      <c r="N71" s="28">
         <f>N69-N70</f>
         <v>-4.9880000000000013</v>
       </c>
     </row>
-    <row r="73" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="39" t="s">
+    <row r="73" spans="2:14" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="M73" s="39">
+      <c r="M73" s="30">
         <v>0.59</v>
       </c>
-      <c r="N73" s="39">
+      <c r="N73" s="30">
         <v>0.86499999999999999</v>
       </c>
     </row>
@@ -2759,11 +2891,11 @@
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M74" s="37">
-        <f t="shared" ref="M74" si="47">M73*M22</f>
+      <c r="M74" s="28">
+        <f t="shared" ref="M74" si="48">M73*M22</f>
         <v>21.998739999999998</v>
       </c>
-      <c r="N74" s="37">
+      <c r="N74" s="28">
         <f>N73*N22</f>
         <v>32.252389999999998</v>
       </c>
@@ -2772,17 +2904,17 @@
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M75" s="37">
-        <f t="shared" ref="M75" si="48">M74-M71</f>
+      <c r="M75" s="28">
+        <f t="shared" ref="M75" si="49">M74-M71</f>
         <v>35.287739999999999</v>
       </c>
-      <c r="N75" s="37">
+      <c r="N75" s="28">
         <f>N74-N71</f>
         <v>37.240389999999998</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N76" s="37"/>
+      <c r="N76" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2792,5 +2924,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>